--- a/stockData.xlsx
+++ b/stockData.xlsx
@@ -10,13 +10,16 @@
     <sheet name="CDR.WAIncomeStmt" sheetId="1" r:id="rId1"/>
     <sheet name="CDR.WABalanceSheet" sheetId="2" r:id="rId2"/>
     <sheet name="CDR.WACashFlow" sheetId="3" r:id="rId3"/>
+    <sheet name="ALE.WAIncomeStmt" sheetId="4" r:id="rId4"/>
+    <sheet name="ALE.WABalanceSheet" sheetId="5" r:id="rId5"/>
+    <sheet name="ALE.WACashFlow" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t>Przychody ze sprzedaży</t>
   </si>
@@ -1117,9 +1120,6 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2">
         <v>-54292000</v>
       </c>
@@ -1143,9 +1143,6 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
         <v>-58178000</v>
       </c>
@@ -1169,9 +1166,6 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
       <c r="G4">
         <v>86896000</v>
       </c>
@@ -1195,9 +1189,6 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="G5">
         <v>-5402000</v>
       </c>
@@ -1221,9 +1212,6 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
       <c r="G6">
         <v>-123089000</v>
       </c>
@@ -1247,7 +1235,722 @@
       <c r="E7">
         <v>822000</v>
       </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B2">
+        <v>2445200000</v>
+      </c>
+      <c r="C2">
+        <v>371200000</v>
+      </c>
+      <c r="D2">
+        <v>1629100000</v>
+      </c>
+      <c r="E2">
+        <v>444900000</v>
+      </c>
+      <c r="F2">
+        <v>435900000</v>
+      </c>
+      <c r="G2">
+        <v>344000000</v>
+      </c>
+      <c r="H2">
+        <v>241800000</v>
+      </c>
+      <c r="I2">
+        <v>241800000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2">
+        <v>45291</v>
+      </c>
+      <c r="B3">
+        <v>3034817000</v>
+      </c>
+      <c r="C3">
+        <v>736533000</v>
+      </c>
+      <c r="D3">
+        <v>1807870000</v>
+      </c>
+      <c r="E3">
+        <v>490414000</v>
+      </c>
+      <c r="F3">
+        <v>-150879000</v>
+      </c>
+      <c r="G3">
+        <v>-196431000</v>
+      </c>
+      <c r="H3">
+        <v>-233642000</v>
+      </c>
+      <c r="I3">
+        <v>-233642000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2">
+        <v>45199</v>
+      </c>
+      <c r="B4">
+        <v>2431800000</v>
+      </c>
+      <c r="C4">
+        <v>467500000</v>
+      </c>
+      <c r="D4">
+        <v>1551900000</v>
+      </c>
+      <c r="E4">
+        <v>412400000</v>
+      </c>
+      <c r="F4">
+        <v>387000000</v>
+      </c>
+      <c r="G4">
+        <v>324500000</v>
+      </c>
+      <c r="H4">
+        <v>241700000</v>
+      </c>
+      <c r="I4">
+        <v>241700000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2">
+        <v>45107</v>
+      </c>
+      <c r="B5">
+        <v>2397708000</v>
+      </c>
+      <c r="C5">
+        <v>525647000</v>
+      </c>
+      <c r="D5">
+        <v>1554066000</v>
+      </c>
+      <c r="E5">
+        <v>317995000</v>
+      </c>
+      <c r="F5">
+        <v>303387000</v>
+      </c>
+      <c r="G5">
+        <v>185843000</v>
+      </c>
+      <c r="H5">
+        <v>118954000</v>
+      </c>
+      <c r="I5">
+        <v>118954000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2">
+        <v>45016</v>
+      </c>
+      <c r="B6">
+        <v>2321200000</v>
+      </c>
+      <c r="C6">
+        <v>592400000</v>
+      </c>
+      <c r="D6">
+        <v>1461800000</v>
+      </c>
+      <c r="E6">
+        <v>267000000</v>
+      </c>
+      <c r="F6">
+        <v>250600000</v>
+      </c>
+      <c r="G6">
+        <v>186200000</v>
+      </c>
+      <c r="H6">
+        <v>157000000</v>
+      </c>
+      <c r="I6">
+        <v>157000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
       <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="2">
+        <v>45291</v>
+      </c>
+      <c r="B2">
+        <v>14524837000</v>
+      </c>
+      <c r="C2">
+        <v>13389107000</v>
+      </c>
+      <c r="E2">
+        <v>1087159000</v>
+      </c>
+      <c r="F2">
+        <v>15114000</v>
+      </c>
+      <c r="G2">
+        <v>33457000</v>
+      </c>
+      <c r="H2">
+        <v>4013966000</v>
+      </c>
+      <c r="I2">
+        <v>300154000</v>
+      </c>
+      <c r="J2">
+        <v>2055751000</v>
+      </c>
+      <c r="K2">
+        <v>2049122000</v>
+      </c>
+      <c r="L2">
+        <v>69588000</v>
+      </c>
+      <c r="M2">
+        <v>9043326000</v>
+      </c>
+      <c r="N2">
+        <v>10569000</v>
+      </c>
+      <c r="O2">
+        <v>7227388000</v>
+      </c>
+      <c r="P2">
+        <v>2268089000</v>
+      </c>
+      <c r="Q2">
+        <v>18538803000</v>
+      </c>
+      <c r="R2">
+        <v>18538803000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="2">
+        <v>45199</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>9344300000000</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>19128000000000</v>
+      </c>
+      <c r="R3">
+        <v>19128000000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="2">
+        <v>45107</v>
+      </c>
+      <c r="B4">
+        <v>15463523000</v>
+      </c>
+      <c r="C4">
+        <v>14304321000</v>
+      </c>
+      <c r="E4">
+        <v>1125234000</v>
+      </c>
+      <c r="F4">
+        <v>17333000</v>
+      </c>
+      <c r="G4">
+        <v>16635000</v>
+      </c>
+      <c r="H4">
+        <v>3277886000</v>
+      </c>
+      <c r="I4">
+        <v>385223000</v>
+      </c>
+      <c r="J4">
+        <v>1177636000</v>
+      </c>
+      <c r="K4">
+        <v>1175319000</v>
+      </c>
+      <c r="L4">
+        <v>73970000</v>
+      </c>
+      <c r="M4">
+        <v>9138757000</v>
+      </c>
+      <c r="N4">
+        <v>10569000</v>
+      </c>
+      <c r="O4">
+        <v>7834111000</v>
+      </c>
+      <c r="P4">
+        <v>1768541000</v>
+      </c>
+      <c r="Q4">
+        <v>18741409000</v>
+      </c>
+      <c r="R4">
+        <v>18741409000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="2">
+        <v>45016</v>
+      </c>
+      <c r="B5">
+        <v>15958000000</v>
+      </c>
+      <c r="C5">
+        <v>14484300000</v>
+      </c>
+      <c r="E5">
+        <v>1177300000</v>
+      </c>
+      <c r="F5">
+        <v>276400000</v>
+      </c>
+      <c r="G5">
+        <v>20000000</v>
+      </c>
+      <c r="H5">
+        <v>2942600000</v>
+      </c>
+      <c r="I5">
+        <v>474200000</v>
+      </c>
+      <c r="J5">
+        <v>848700000</v>
+      </c>
+      <c r="K5">
+        <v>846100000</v>
+      </c>
+      <c r="L5">
+        <v>82000000</v>
+      </c>
+      <c r="M5">
+        <v>9096300000</v>
+      </c>
+      <c r="N5">
+        <v>10600000</v>
+      </c>
+      <c r="O5">
+        <v>7926300000</v>
+      </c>
+      <c r="P5">
+        <v>1878000000</v>
+      </c>
+      <c r="Q5">
+        <v>18900600000</v>
+      </c>
+      <c r="R5">
+        <v>18900600000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="2">
+        <v>44926</v>
+      </c>
+      <c r="B6">
+        <v>16026908000</v>
+      </c>
+      <c r="C6">
+        <v>14495478000</v>
+      </c>
+      <c r="E6">
+        <v>1168876000</v>
+      </c>
+      <c r="F6">
+        <v>346259000</v>
+      </c>
+      <c r="G6">
+        <v>16295000</v>
+      </c>
+      <c r="H6">
+        <v>3178887000</v>
+      </c>
+      <c r="I6">
+        <v>496620000</v>
+      </c>
+      <c r="J6">
+        <v>880367000</v>
+      </c>
+      <c r="K6">
+        <v>877559000</v>
+      </c>
+      <c r="L6">
+        <v>69729000</v>
+      </c>
+      <c r="M6">
+        <v>8981259000</v>
+      </c>
+      <c r="N6">
+        <v>10569000</v>
+      </c>
+      <c r="O6">
+        <v>7911935000</v>
+      </c>
+      <c r="P6">
+        <v>2312601000</v>
+      </c>
+      <c r="Q6">
+        <v>19205795000</v>
+      </c>
+      <c r="R6">
+        <v>19205795000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B2">
+        <v>1133800000</v>
+      </c>
+      <c r="C2">
+        <v>-125200000</v>
+      </c>
+      <c r="D2">
+        <v>-126400000</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>882200000</v>
+      </c>
+      <c r="H2">
+        <v>1008400000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2">
+        <v>45291</v>
+      </c>
+      <c r="B3">
+        <v>896157000</v>
+      </c>
+      <c r="C3">
+        <v>-120643000</v>
+      </c>
+      <c r="D3">
+        <v>-455800000</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>319714000</v>
+      </c>
+      <c r="H3">
+        <v>775492000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2">
+        <v>45199</v>
+      </c>
+      <c r="B4">
+        <v>814600000</v>
+      </c>
+      <c r="C4">
+        <v>-96600000</v>
+      </c>
+      <c r="D4">
+        <v>-145400000</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>572600000</v>
+      </c>
+      <c r="H4">
+        <v>719500000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2">
+        <v>45107</v>
+      </c>
+      <c r="B5">
+        <v>572621000</v>
+      </c>
+      <c r="C5">
+        <v>-120866000</v>
+      </c>
+      <c r="D5">
+        <v>-122595000</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>329160000</v>
+      </c>
+      <c r="H5">
+        <v>449568000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2">
+        <v>45016</v>
+      </c>
+      <c r="B6">
+        <v>257500000</v>
+      </c>
+      <c r="C6">
+        <v>-128800000</v>
+      </c>
+      <c r="D6">
+        <v>-160100000</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>-31400000</v>
+      </c>
+      <c r="H6">
+        <v>125900000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0</v>
       </c>
       <c r="G7">
